--- a/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202106/jsliu__bank_test_&_city_(HF)(202106)_Loan_Portfolio_Analytics.xlsx
@@ -206,7 +206,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: June, 2021           Evaluation Date: June 30, 2021</t>
   </si>
   <si>
-    <t>Printed on: 08/09/2021 4:48:41PM</t>
+    <t>Printed on: 09/06/2021 2:01:37PM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1068,7 +1068,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-DCC8-4412-AE27-7BD10AECF7C8}"/>
+                <c16:uniqueId val="{00000000-C570-4786-91C2-73268677668E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1082,7 +1082,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DCC8-4412-AE27-7BD10AECF7C8}"/>
+                <c16:uniqueId val="{00000001-C570-4786-91C2-73268677668E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1096,7 +1096,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DCC8-4412-AE27-7BD10AECF7C8}"/>
+                <c16:uniqueId val="{00000002-C570-4786-91C2-73268677668E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1110,7 +1110,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DCC8-4412-AE27-7BD10AECF7C8}"/>
+                <c16:uniqueId val="{00000003-C570-4786-91C2-73268677668E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1148,7 +1148,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DCC8-4412-AE27-7BD10AECF7C8}"/>
+                  <c16:uniqueId val="{00000002-C570-4786-91C2-73268677668E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1185,7 +1185,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1315,7 +1317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DCC8-4412-AE27-7BD10AECF7C8}"/>
+              <c16:uniqueId val="{00000004-C570-4786-91C2-73268677668E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1418,7 +1420,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-5FC7-41DF-B884-5839EC61B8F3}"/>
+                <c16:uniqueId val="{00000000-66B1-4B34-A793-16ACB85A5944}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1432,7 +1434,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5FC7-41DF-B884-5839EC61B8F3}"/>
+                <c16:uniqueId val="{00000001-66B1-4B34-A793-16ACB85A5944}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1446,7 +1448,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-5FC7-41DF-B884-5839EC61B8F3}"/>
+                <c16:uniqueId val="{00000002-66B1-4B34-A793-16ACB85A5944}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1460,7 +1462,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5FC7-41DF-B884-5839EC61B8F3}"/>
+                <c16:uniqueId val="{00000003-66B1-4B34-A793-16ACB85A5944}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1498,7 +1500,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1526,7 +1530,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5FC7-41DF-B884-5839EC61B8F3}"/>
+              <c16:uniqueId val="{00000004-66B1-4B34-A793-16ACB85A5944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2640,7 +2644,7 @@
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>109.50568328843295</v>
+        <v>109.37568072952655</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
@@ -2966,7 +2970,7 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!E101:E114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>108.0208571764053</v>
+        <v>107.89261736796351</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!F101:F114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -4960,7 +4964,7 @@
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F51" s="23">
         <v>100</v>
@@ -9444,7 +9448,7 @@
       </c>
       <c r="E114" s="5">
         <f>'Mortgage Performance'!E51</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F114" s="5">
         <f>'Mortgage Performance'!F51</f>
